--- a/technology_scores.xlsx
+++ b/technology_scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlohm\Dropbox\Lohman-Guest_Shared\12_PhD_Paper3_Sanitation_Decision-Making\Python Code\GitHubDesktop\DMsan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E25FADA-6EC6-4E3A-B1DB-BF1053B1CD5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE0D290-6727-4EB9-9A60-C72B624BABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{672D30C3-4BC8-BB41-BA04-8F7D3B55B551}"/>
   </bookViews>
@@ -24,28 +24,25 @@
     <sheet name="storm_flexibility" sheetId="9" r:id="rId9"/>
     <sheet name="temp_flexibility" sheetId="10" r:id="rId10"/>
     <sheet name="drought_flexibility" sheetId="11" r:id="rId11"/>
-    <sheet name="LCA_human_health" sheetId="12" r:id="rId12"/>
-    <sheet name="LCA_ecosystems" sheetId="24" r:id="rId13"/>
-    <sheet name="LCA_resources" sheetId="28" r:id="rId14"/>
-    <sheet name="water_reuse" sheetId="29" r:id="rId15"/>
-    <sheet name="N_nutrient_recovery" sheetId="30" r:id="rId16"/>
-    <sheet name="P_nutrient_recovery" sheetId="31" r:id="rId17"/>
-    <sheet name="K_nutrient_recovery" sheetId="33" r:id="rId18"/>
-    <sheet name="energy_recovery" sheetId="35" r:id="rId19"/>
-    <sheet name="supply_chain" sheetId="34" r:id="rId20"/>
-    <sheet name="user_net_cost" sheetId="13" r:id="rId21"/>
-    <sheet name="design_job_creation" sheetId="14" r:id="rId22"/>
-    <sheet name="design_high_pay_jobs" sheetId="15" r:id="rId23"/>
-    <sheet name="end_user_disposal" sheetId="16" r:id="rId24"/>
-    <sheet name="end_user_cleaning" sheetId="17" r:id="rId25"/>
-    <sheet name="privacy" sheetId="18" r:id="rId26"/>
-    <sheet name="odor" sheetId="19" r:id="rId27"/>
-    <sheet name="noise" sheetId="20" r:id="rId28"/>
-    <sheet name="end_user_disposal_safety" sheetId="21" r:id="rId29"/>
-    <sheet name="security" sheetId="22" r:id="rId30"/>
-    <sheet name="management_disposal" sheetId="23" r:id="rId31"/>
-    <sheet name="management_cleaning" sheetId="26" r:id="rId32"/>
-    <sheet name="management_disposal_safety" sheetId="27" r:id="rId33"/>
+    <sheet name="water_reuse" sheetId="29" r:id="rId12"/>
+    <sheet name="N_nutrient_recovery" sheetId="30" r:id="rId13"/>
+    <sheet name="P_nutrient_recovery" sheetId="31" r:id="rId14"/>
+    <sheet name="K_nutrient_recovery" sheetId="33" r:id="rId15"/>
+    <sheet name="energy_recovery" sheetId="35" r:id="rId16"/>
+    <sheet name="supply_chain" sheetId="34" r:id="rId17"/>
+    <sheet name="user_net_cost" sheetId="13" r:id="rId18"/>
+    <sheet name="design_job_creation" sheetId="14" r:id="rId19"/>
+    <sheet name="design_high_pay_jobs" sheetId="15" r:id="rId20"/>
+    <sheet name="end_user_disposal" sheetId="16" r:id="rId21"/>
+    <sheet name="end_user_cleaning" sheetId="17" r:id="rId22"/>
+    <sheet name="privacy" sheetId="18" r:id="rId23"/>
+    <sheet name="odor" sheetId="19" r:id="rId24"/>
+    <sheet name="noise" sheetId="20" r:id="rId25"/>
+    <sheet name="end_user_disposal_safety" sheetId="21" r:id="rId26"/>
+    <sheet name="security" sheetId="22" r:id="rId27"/>
+    <sheet name="management_disposal" sheetId="23" r:id="rId28"/>
+    <sheet name="management_cleaning" sheetId="26" r:id="rId29"/>
+    <sheet name="management_disposal_safety" sheetId="27" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -66,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="262">
   <si>
     <t>Criteria</t>
   </si>
@@ -284,9 +281,6 @@
     <t>LCA</t>
   </si>
   <si>
-    <t>global warming potential due to the system</t>
-  </si>
-  <si>
     <t>Economic</t>
   </si>
   <si>
@@ -302,27 +296,12 @@
     <t>USD/cap/day</t>
   </si>
   <si>
-    <t>triangular</t>
-  </si>
-  <si>
     <t>user_net_cost_2</t>
   </si>
   <si>
     <t>user_net_cost_3</t>
   </si>
   <si>
-    <t>acidification</t>
-  </si>
-  <si>
-    <t>design_acidification_1</t>
-  </si>
-  <si>
-    <t>design_acidification_2</t>
-  </si>
-  <si>
-    <t>design_acidification_3</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
@@ -515,15 +494,6 @@
     <t>Impact of droughts</t>
   </si>
   <si>
-    <t>global_warming_1</t>
-  </si>
-  <si>
-    <t>global_warming_2</t>
-  </si>
-  <si>
-    <t>global_warming_3</t>
-  </si>
-  <si>
     <t>The convenience of disposal for the management/landlord</t>
   </si>
   <si>
@@ -773,15 +743,6 @@
     <t>Damage to resource availability</t>
   </si>
   <si>
-    <t>LCA_human_health</t>
-  </si>
-  <si>
-    <t>LCA_ecosystems</t>
-  </si>
-  <si>
-    <t>LCA_resources</t>
-  </si>
-  <si>
     <t>Water recovery</t>
   </si>
   <si>
@@ -866,22 +827,28 @@
     <t>Env3</t>
   </si>
   <si>
-    <t>Env4</t>
-  </si>
-  <si>
-    <t>Env5</t>
-  </si>
-  <si>
-    <t>Env6</t>
-  </si>
-  <si>
-    <t>Env7</t>
-  </si>
-  <si>
-    <t>Env8</t>
-  </si>
-  <si>
-    <t>Env9</t>
+    <t>CALCULATED with env.py</t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>RR2</t>
+  </si>
+  <si>
+    <t>RR3</t>
+  </si>
+  <si>
+    <t>RR4</t>
+  </si>
+  <si>
+    <t>RR5</t>
+  </si>
+  <si>
+    <t>RR6</t>
+  </si>
+  <si>
+    <t>Not in spreadsheet</t>
   </si>
 </sst>
 </file>
@@ -938,7 +905,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -966,6 +933,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1015,6 +988,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1335,7 +1309,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1352,37 +1326,37 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>11</v>
@@ -1399,13 +1373,13 @@
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -1422,13 +1396,13 @@
     </row>
     <row r="4" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -1445,13 +1419,13 @@
     </row>
     <row r="5" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -1468,13 +1442,13 @@
     </row>
     <row r="6" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -1491,13 +1465,13 @@
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -1514,13 +1488,13 @@
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1537,10 +1511,10 @@
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1557,10 +1531,10 @@
     </row>
     <row r="10" spans="1:8" s="7" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>11</v>
@@ -1577,10 +1551,10 @@
     </row>
     <row r="11" spans="1:8" s="6" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1595,213 +1569,222 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D12" s="8" t="s">
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="17" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="E18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="9" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>71</v>
+      <c r="F20" s="9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="10" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>13</v>
@@ -1809,22 +1792,22 @@
     </row>
     <row r="22" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G22" s="14" t="s">
         <v>24</v>
@@ -1832,22 +1815,22 @@
     </row>
     <row r="23" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G23" s="14" t="s">
         <v>24</v>
@@ -1855,22 +1838,22 @@
     </row>
     <row r="24" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>13</v>
@@ -1878,19 +1861,19 @@
     </row>
     <row r="25" spans="1:7" s="14" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F25" s="14" t="s">
         <v>18</v>
@@ -1901,22 +1884,22 @@
     </row>
     <row r="26" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>24</v>
@@ -1924,42 +1907,42 @@
     </row>
     <row r="27" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>18</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>18</v>
@@ -1970,19 +1953,19 @@
     </row>
     <row r="29" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F29" s="13" t="s">
         <v>18</v>
@@ -1993,19 +1976,19 @@
     </row>
     <row r="30" spans="1:7" s="13" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="13" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>18</v>
@@ -2016,22 +1999,22 @@
     </row>
     <row r="31" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="16" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>13</v>
@@ -2039,19 +2022,19 @@
     </row>
     <row r="32" spans="1:7" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="16" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>18</v>
@@ -2062,19 +2045,19 @@
     </row>
     <row r="33" spans="1:8" s="16" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F33" s="16" t="s">
         <v>18</v>
@@ -2108,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2146,7 +2129,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2184,7 +2167,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2222,7 +2205,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2279,7 +2262,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2317,7 +2300,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -2355,7 +2338,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2393,7 +2376,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2436,21 +2419,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FC13DDB-D544-264B-9008-7760CE972ABE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC7374-1BFE-4047-B173-DE11D9D2DE36}">
   <sheetPr>
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="2" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2488,426 +2471,109 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>150</v>
+        <v>200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>202</v>
       </c>
       <c r="E4" t="s">
-        <v>151</v>
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9323B4-0D54-7E4D-A5DD-CBBC514D4BD5}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="13.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G2">
-        <v>53</v>
-      </c>
-      <c r="H2">
-        <v>28</v>
-      </c>
-      <c r="I2">
-        <v>86</v>
-      </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3">
-        <v>25</v>
-      </c>
-      <c r="H3">
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D9D33C-9873-42E4-A48A-CFF5919E10AB}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FC7374-1BFE-4047-B173-DE11D9D2DE36}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E2" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
-      <c r="E4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D65BA5-7629-4006-8BF6-14592DDA5798}">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="2" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -2919,7 +2585,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2957,22 +2623,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>28</v>
@@ -2995,22 +2661,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>29</v>
@@ -3033,22 +2699,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G4">
         <v>77</v>
@@ -3075,10 +2741,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA29570F-9335-4D21-B428-FF5D99427824}">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="2" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3090,7 +2756,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3128,22 +2794,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
         <v>207</v>
       </c>
-      <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" t="s">
-        <v>216</v>
-      </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>42</v>
@@ -3166,22 +2832,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>74</v>
@@ -3204,22 +2870,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E4" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G4">
         <v>60</v>
@@ -3246,10 +2912,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F4409-D197-44B5-ABAB-E0CCA4CAB467}">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="2" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3261,7 +2927,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3299,22 +2965,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>75</v>
@@ -3337,22 +3003,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>76</v>
@@ -3375,22 +3041,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G4">
         <v>96</v>
@@ -3416,10 +3082,10 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F0216E-F3B5-4C75-B7E3-D586986618A2}">
   <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
+    <tabColor theme="2" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -3431,7 +3097,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -3469,22 +3135,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3501,22 +3167,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G3">
         <v>40</v>
@@ -3539,22 +3205,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3567,6 +3233,450 @@
       </c>
       <c r="L4" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3730C0-374F-4FC5-B70C-7EA120C190D0}">
+  <sheetPr>
+    <tabColor theme="2" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9020029-F983-2D4B-811D-F26C25C7C5AE}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="11" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="12">
+        <v>14</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="12">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="12">
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00726486-B842-2041-98FE-2E8568208BFC}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3593,16 +3703,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -3626,12 +3736,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -3660,7 +3770,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -3689,7 +3799,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -3723,450 +3833,6 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3730C0-374F-4FC5-B70C-7EA120C190D0}">
-  <sheetPr>
-    <tabColor theme="6" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E3" t="s">
-        <v>230</v>
-      </c>
-      <c r="F3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" t="s">
-        <v>231</v>
-      </c>
-      <c r="F4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-      <c r="L4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9020029-F983-2D4B-811D-F26C25C7C5AE}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="11" style="12"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="12">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="12">
-        <v>8</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="12">
-        <v>22</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00726486-B842-2041-98FE-2E8568208BFC}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3">
-        <v>10</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E852E00B-F08F-4441-9F51-5EFD877FF5B7}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4178,7 +3844,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4213,22 +3879,22 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -4239,22 +3905,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
         <v>86</v>
       </c>
-      <c r="D3" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -4265,22 +3931,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" t="s">
         <v>86</v>
       </c>
-      <c r="D4" t="s">
-        <v>92</v>
-      </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -4295,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5107C111-3804-1240-99DA-17B1CE3A7796}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -4310,7 +3976,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4348,22 +4014,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G2">
         <v>0.8</v>
@@ -4386,22 +4052,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G3">
         <v>0.8</v>
@@ -4424,22 +4090,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G4">
         <f>52*2</f>
@@ -4469,7 +4135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC106D18-8739-4443-BF99-297A6DF00AC3}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -4481,7 +4147,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4519,19 +4185,19 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="s">
-        <v>103</v>
-      </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4551,19 +4217,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4583,19 +4249,19 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="s">
-        <v>103</v>
-      </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4619,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A901F79E-AF75-504C-853A-36BB5946E47C}">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -4631,7 +4297,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4669,22 +4335,22 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2">
         <v>3</v>
@@ -4701,22 +4367,22 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -4733,22 +4399,22 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -4769,7 +4435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E32E946-C34C-F245-9D79-E6F684B40381}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4781,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4816,19 +4482,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4845,19 +4511,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -4874,19 +4540,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -4904,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515D01FA-0383-3543-8C45-2B6643B1A76B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -4916,7 +4582,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4951,19 +4617,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -4977,19 +4643,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5003,19 +4669,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5033,7 +4699,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288570F4-C753-3248-B3A0-EDADDC2F815B}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5045,7 +4711,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5080,19 +4746,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5106,19 +4772,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5132,19 +4798,405 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
         <v>120</v>
       </c>
+      <c r="E2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
       <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332F5F-32EC-C046-8FDB-241E5C1F829A}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
         <v>121</v>
       </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E922356-1DFC-4726-8591-7B465EEC758C}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>149</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5180,16 +5232,16 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
         <v>38</v>
@@ -5213,12 +5265,12 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5247,7 +5299,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5276,7 +5328,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5310,392 +5362,6 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E172A0A8-D530-E347-B58E-45BBE3162EF9}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E332F5F-32EC-C046-8FDB-241E5C1F829A}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E922356-1DFC-4726-8591-7B465EEC758C}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE78D9E-A590-4EAA-B765-BA883BF4243E}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -5707,7 +5373,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5742,19 +5408,19 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -5768,19 +5434,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -5794,19 +5460,19 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -5843,7 +5509,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -5881,7 +5547,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -5913,7 +5579,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5945,7 +5611,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -5999,7 +5665,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6037,7 +5703,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6066,7 +5732,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6095,7 +5761,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6143,7 +5809,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6181,7 +5847,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6210,7 +5876,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6239,7 +5905,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6287,7 +5953,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6325,7 +5991,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6354,7 +6020,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6383,7 +6049,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6434,7 +6100,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6472,7 +6138,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6510,7 +6176,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6548,7 +6214,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -6605,7 +6271,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -6643,7 +6309,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -6681,7 +6347,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -6719,7 +6385,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
